--- a/rev_b/sfw/U1001_Firmware/Microcontroller_Peripheral_Map.xlsx
+++ b/rev_b/sfw/U1001_Firmware/Microcontroller_Peripheral_Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\LED_Panel_Controller\sfw\U1101_firmware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewm\OneDrive\Documents\KiCad Projects\Projects\Nixie_Clock\rev_b\sfw\U1001_Firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB4EA5D-D82B-4666-83CF-3107E55B3B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAB4A9B-EE24-4B07-AFB9-B5098835F34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3540" windowWidth="24240" windowHeight="13740" xr2:uid="{B7D91EF5-14DE-4003-8C97-5F77E28EC198}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B7D91EF5-14DE-4003-8C97-5F77E28EC198}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Peripheral Name</t>
   </si>
@@ -39,21 +39,9 @@
     <t>Pin Routing</t>
   </si>
   <si>
-    <t>SPI3</t>
-  </si>
-  <si>
-    <t>Seiral Peripheral Interface 3</t>
-  </si>
-  <si>
     <t>Software Naming</t>
   </si>
   <si>
-    <t>UART1</t>
-  </si>
-  <si>
-    <t>Universal Asynchronous Recevier Transmitter 1</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -87,27 +75,6 @@
     <t>usbUart</t>
   </si>
   <si>
-    <t>SPI_Flash</t>
-  </si>
-  <si>
-    <t>TMR5</t>
-  </si>
-  <si>
-    <t>Timer 5</t>
-  </si>
-  <si>
-    <t>panelMultiplexingTimer</t>
-  </si>
-  <si>
-    <t>panelPWM</t>
-  </si>
-  <si>
-    <t>Timer 4</t>
-  </si>
-  <si>
-    <t>TMR4</t>
-  </si>
-  <si>
     <t>Prefetch</t>
   </si>
   <si>
@@ -135,63 +102,12 @@
     <t>Error catch, resets the microcontroller if the timer has not been cleared in 8 seconds by heartbeat timer. Timer is cleared within the heartbeat ISR (below)</t>
   </si>
   <si>
-    <t>TMR2</t>
-  </si>
-  <si>
-    <t>Timer 2</t>
-  </si>
-  <si>
     <t>Timer 1 is used as the heartbeat timer, which triggers an interrupt every 1ms</t>
   </si>
   <si>
-    <t>Heartbeat Timer LED PWM Timebase</t>
-  </si>
-  <si>
-    <t>OC5</t>
-  </si>
-  <si>
-    <t>Output Compare 5</t>
-  </si>
-  <si>
-    <t>Heartbeat Timer LED PWM</t>
-  </si>
-  <si>
-    <t>RD9</t>
-  </si>
-  <si>
     <t>ADC used for board level telemetry</t>
   </si>
   <si>
-    <t>RD2, RD3</t>
-  </si>
-  <si>
-    <t>Allows data to be stored and retrieved from external serial FLASH memory</t>
-  </si>
-  <si>
-    <t>PMP</t>
-  </si>
-  <si>
-    <t>Parallel Master Port</t>
-  </si>
-  <si>
-    <t>Drives data into the LED panel, clocks it</t>
-  </si>
-  <si>
-    <t>Data is driven into PMP by DMA CH2</t>
-  </si>
-  <si>
-    <t>RC3, RE0-RE7</t>
-  </si>
-  <si>
-    <t>DMA CH2</t>
-  </si>
-  <si>
-    <t>Direct Memory Access Channel 2</t>
-  </si>
-  <si>
-    <t>Shifts data from panel_direct_data_buffer[] into PMP for output into panel</t>
-  </si>
-  <si>
     <t>DMA CH0</t>
   </si>
   <si>
@@ -228,96 +144,21 @@
     <t>RF4/RF5</t>
   </si>
   <si>
-    <t>SPI5</t>
-  </si>
-  <si>
     <t>Inter Integrated Circuit 5</t>
   </si>
   <si>
-    <t>Seiral Peripheral Interface 5</t>
-  </si>
-  <si>
-    <t>Reads and Writes to SD Card</t>
-  </si>
-  <si>
-    <t>SPI4</t>
-  </si>
-  <si>
-    <t>Seiral Peripheral Interface 4</t>
-  </si>
-  <si>
-    <t>Reads data from external MLVDS bus</t>
-  </si>
-  <si>
-    <t>Not Implemented Yet</t>
-  </si>
-  <si>
-    <t>On time timer for panel multiplexing</t>
-  </si>
-  <si>
     <t>USB_UART_TX</t>
   </si>
   <si>
     <t>USB_UART_RX</t>
   </si>
   <si>
-    <t>pmp</t>
-  </si>
-  <si>
-    <t>panelDriveDMA</t>
-  </si>
-  <si>
-    <t>Panel Dimming PWM Timebase</t>
-  </si>
-  <si>
-    <t>OC3</t>
-  </si>
-  <si>
-    <t>Output Compare 3</t>
-  </si>
-  <si>
-    <t>Panel Dimming PWM</t>
-  </si>
-  <si>
-    <t>RG8</t>
-  </si>
-  <si>
-    <t>INT2</t>
-  </si>
-  <si>
-    <t>External Interrupt 2</t>
-  </si>
-  <si>
-    <t>powerCapTouchPushbutton</t>
-  </si>
-  <si>
-    <t>INT4</t>
-  </si>
-  <si>
-    <t>External Interrupt 4</t>
-  </si>
-  <si>
-    <t>modeCapTouchPushbutton</t>
-  </si>
-  <si>
-    <t>RG1</t>
-  </si>
-  <si>
-    <t>RG6</t>
-  </si>
-  <si>
     <t>RTCC</t>
   </si>
   <si>
     <t>Real Time Clock and Calendar</t>
   </si>
   <si>
-    <t>Cap Touch Mode Pushbutton Input</t>
-  </si>
-  <si>
-    <t>Cap Touch Power Pushbutton Input</t>
-  </si>
-  <si>
     <t>Keeps track of time and date in hardware</t>
   </si>
   <si>
@@ -331,13 +172,25 @@
   </si>
   <si>
     <t>Generates thermal seed random numbers</t>
+  </si>
+  <si>
+    <t>RF0/RF1</t>
+  </si>
+  <si>
+    <t>Universal Asynchronous Recevier Transmitter 3</t>
+  </si>
+  <si>
+    <t>UART3</t>
+  </si>
+  <si>
+    <t>RC2, RC3, RC4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,13 +202,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -381,15 +227,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -706,22 +549,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3552A37-77FD-49A8-A79A-02C6EC063803}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="30.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.1796875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="30.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,50 +573,53 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -783,300 +627,123 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/rev_b/sfw/U1001_Firmware/Microcontroller_Peripheral_Map.xlsx
+++ b/rev_b/sfw/U1001_Firmware/Microcontroller_Peripheral_Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewm\OneDrive\Documents\KiCad Projects\Projects\Nixie_Clock\rev_b\sfw\U1001_Firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAB4A9B-EE24-4B07-AFB9-B5098835F34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAEA95D-636B-4450-BBAC-FB10650FF0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B7D91EF5-14DE-4003-8C97-5F77E28EC198}"/>
   </bookViews>
@@ -551,7 +551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3552A37-77FD-49A8-A79A-02C6EC063803}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
